--- a/Antispritzschutz_Daten_Liner_4.xlsx
+++ b/Antispritzschutz_Daten_Liner_4.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="Q11" sqref="A11:XFD11"/>
@@ -1199,7 +1199,6 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
         <v>1</v>
       </c>
@@ -1211,19 +1210,15 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>288</v>
       </c>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
         <v>0</v>
       </c>
-      <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
         <v>1</v>
       </c>
@@ -1235,7 +1230,6 @@
       <c r="T11" t="n">
         <v>0</v>
       </c>
-      <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -1245,6 +1239,72 @@
       <c r="X11" t="inlineStr">
         <is>
           <t>2023-01-26 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>515088254-9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>2400</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>696.5</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>135</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>2125.0</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2023-01-31 00:00:00</t>
         </is>
       </c>
     </row>
